--- a/biology/Botanique/Ipomoea_orizabensis/Ipomoea_orizabensis.xlsx
+++ b/biology/Botanique/Ipomoea_orizabensis/Ipomoea_orizabensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea orizabensis, le jalap fusiforme ou scammonée du Mexique, est une espèce de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire du Mexique et d'Amérique centrale.
-C'est une plante médicinale, inscrite à la pharmacopée française XIe édition - Liste A, dont les parties utilisées sont les racines et la résine[2].
+C'est une plante médicinale, inscrite à la pharmacopée française XIe édition - Liste A, dont les parties utilisées sont les racines et la résine.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea orizabensis est une plante herbacée vivace, au port grimpant ou parfois prostré. les  tiges, volubile, sont plus ou moins lignifiées, ramifiées, glabres à pubescentes. Les feuilles, ovales, entières ou lobées (3 à 5 lobes), à l'apex aigu, acuminé, font de 4 à 13 (16,5) cm de long sur 3 à 10 (14) cm de large.
 L'inflorescence compte de 1 à 5 fleurs. les fleurs ont des sépales subégaux, oblongs-lancéolés à ovales-elliptiques, de 8 à 15 mm de long. La corolle est en forme d'entonnoir (infundibuliforme), parfois subcampanulée, de 5 à 9 cm de long, de couleur bleu-rougeâtre, rose, rouge vineux à écarlate, avec le tube généralement blanc ou tout au moins plus clair.
-Le fruit est une capsule globuleuse à subglobuleuse. Il contient 4 graines, subglobuleuses, pubérulentes ou glabres[3],[4].
+Le fruit est une capsule globuleuse à subglobuleuse. Il contient 4 graines, subglobuleuses, pubérulentes ou glabres,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition d’Ipomoea orizabensis s'étend depuis le nord du Mexique (dans les États de Sinaloa, Coahuila, Nuevo León, Tamaulipas, Durango, San Luis Potosí, Guanajuato, Querétaro, Hidalgo, Nayarit, Jalisco, Michoacán, México, District fédéral, Morelos, Puebla, Tlaxcala, Veracruz, Oaxaca, Chiapas), jusqu'au Guatemala et au Honduras, en Amérique centrale[3],[4],[5].
-Cette espèce est très commune dans les régions boisées tempérées, principalement dans les chênaies et les pinèdes, mais elle se rencontre aussi dans les forêts tropicales de feuillus, les prairies et les forêts de nuage, en particulier dans la végétation secondaire correspondante, à des altitudes comprises entre 1000 et 2800 mètres. Elle fleurit de juillet à novembre[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition d’Ipomoea orizabensis s'étend depuis le nord du Mexique (dans les États de Sinaloa, Coahuila, Nuevo León, Tamaulipas, Durango, San Luis Potosí, Guanajuato, Querétaro, Hidalgo, Nayarit, Jalisco, Michoacán, México, District fédéral, Morelos, Puebla, Tlaxcala, Veracruz, Oaxaca, Chiapas), jusqu'au Guatemala et au Honduras, en Amérique centrale.
+Cette espèce est très commune dans les régions boisées tempérées, principalement dans les chênaies et les pinèdes, mais elle se rencontre aussi dans les forêts tropicales de feuillus, les prairies et les forêts de nuage, en particulier dans la végétation secondaire correspondante, à des altitudes comprises entre 1000 et 2800 mètres. Elle fleurit de juillet à novembre,.
 </t>
         </is>
       </c>
@@ -577,11 +593,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce, Ipomoea orizabensis, a été décrite et publiée pour la première fois  en 1840 dans Nomenclator Botanicus. Editio secunda, 1: 818[6].
-Synonymes
-Selon The Plant List            (4 janvier 2021)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce, Ipomoea orizabensis, a été décrite et publiée pour la première fois  en 1840 dans Nomenclator Botanicus. Editio secunda, 1: 818.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ipomoea_orizabensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_orizabensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (4 janvier 2021) :
 Convolvulus orizabensis G. Pelletan (basionyme)
 Convolvulus sanguineus Willd. ex Roem. &amp; Schult.
 Ipomoea longipedunculata (M. Martens &amp; Galeotti) Hemsl
@@ -590,9 +643,43 @@
 Pharbitis longipedunculata M. Martens &amp; Galeotti
 Pharbitis serotina (DC.) Choisy
 Pharbitis tyrianthina (Lindl.) Hook.
-Quamoclit serotina (DC.) G. Don
-Variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (4 janvier 2021)[8] :
+Quamoclit serotina (DC.) G. Don</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ipomoea_orizabensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_orizabensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (4 janvier 2021) :
 Ipomoea orizabensis var. austromexicana J.A.McDonald (2001)
 Ipomoea orizabensis var. collina (House) J.A.McDonald (2001)
 Ipomoea orizabensis var. novogaliciana J.A.McDonald (2001)
@@ -600,31 +687,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ipomoea_orizabensis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ipomoea_orizabensis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Composition chimique et propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On a isolé des racines de cette espèce plusieurs glycorésines : 
 la scammonine I, glycolipide complexe actif contre les staphylocoques résistants à la méthicilline,
@@ -632,7 +721,7 @@
 les orizabines I-IV, utiles comme laxatifs,
 l'orizabine VIII, qui présente une faible cytotoxicité contre le carcinome du côlon et
 les orizabines IX à XI, qui présentaient une activité cytotoxique (DE50 1-5 µg/ml) contre le carcinome épidermoïde oral mais présentaient une faible cytotoxicité contre le carcinome du côlon, et des lignées cellulaires du carcinome squameux du col de l'utérus et du cancer de l'ovaire (DE50 4-20 µg/mL) .
-Ces glycolipides contiennent une lactone macrocyclique intramoléculaire[9].
+Ces glycolipides contiennent une lactone macrocyclique intramoléculaire.
 </t>
         </is>
       </c>
